--- a/Data/proterant_ds.xlsx
+++ b/Data/proterant_ds.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="3700" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="223">
   <si>
     <t>Liriodendron</t>
   </si>
@@ -532,15 +532,6 @@
     <t>carolina</t>
   </si>
   <si>
-    <t>Aquifoliaceae</t>
-  </si>
-  <si>
-    <t>Ilex</t>
-  </si>
-  <si>
-    <t>opaca</t>
-  </si>
-  <si>
     <t>Magnolia</t>
   </si>
   <si>
@@ -665,9 +656,6 @@
   </si>
   <si>
     <t>polygamo-mono</t>
-  </si>
-  <si>
-    <t>AN</t>
   </si>
   <si>
     <t>bisexual</t>
@@ -763,8 +751,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -780,15 +770,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1118,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1129,7 +1121,7 @@
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="41.1640625" customWidth="1"/>
@@ -1137,34 +1129,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1190,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1207,16 +1199,16 @@
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
         <v>151</v>
@@ -1235,20 +1227,20 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1264,17 +1256,17 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1290,17 +1282,17 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1316,17 +1308,17 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1342,11 +1334,11 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>27</v>
@@ -1368,16 +1360,16 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1394,10 +1386,10 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -1417,16 +1409,16 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1443,16 +1435,16 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1478,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1495,10 +1487,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -1518,16 +1510,16 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1538,22 +1530,22 @@
         <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
-        <v>215</v>
-      </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1564,22 +1556,22 @@
         <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1596,16 +1588,16 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1613,7 +1605,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
@@ -1622,10 +1614,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
@@ -1645,10 +1637,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
         <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -1668,16 +1660,16 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
         <v>154</v>
@@ -1697,16 +1689,16 @@
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
         <v>154</v>
@@ -1726,16 +1718,16 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
       </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1752,10 +1744,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
         <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1775,16 +1767,16 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
         <v>154</v>
@@ -1804,16 +1796,16 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1830,16 +1822,16 @@
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1856,16 +1848,16 @@
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1882,16 +1874,16 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1902,22 +1894,22 @@
         <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1928,22 +1920,22 @@
         <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1960,16 +1952,16 @@
         <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1986,16 +1978,16 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2012,16 +2004,16 @@
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2038,10 +2030,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
         <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
@@ -2061,10 +2053,10 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
         <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
@@ -2084,10 +2076,10 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
         <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
@@ -2107,16 +2099,16 @@
         <v>16</v>
       </c>
       <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
         <v>54</v>
-      </c>
-      <c r="F38" t="s">
-        <v>27</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
       </c>
       <c r="H38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2142,7 +2134,7 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2153,16 +2145,16 @@
         <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
         <v>54</v>
-      </c>
-      <c r="F40" t="s">
-        <v>27</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -2176,22 +2168,22 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>39</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2208,10 +2200,10 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
         <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
@@ -2231,10 +2223,10 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
@@ -2263,7 +2255,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2280,16 +2272,16 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2306,16 +2298,16 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
         <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2341,7 +2333,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2358,16 +2350,16 @@
         <v>16</v>
       </c>
       <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
         <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>27</v>
       </c>
       <c r="G48" t="s">
         <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2384,16 +2376,16 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
         <v>39</v>
-      </c>
-      <c r="F49" t="s">
-        <v>27</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
       </c>
       <c r="H49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2410,16 +2402,16 @@
         <v>16</v>
       </c>
       <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
         <v>39</v>
-      </c>
-      <c r="F50" t="s">
-        <v>27</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2436,10 +2428,10 @@
         <v>132</v>
       </c>
       <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
         <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>27</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
@@ -2453,7 +2445,7 @@
         <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -2468,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I52" s="3"/>
     </row>
@@ -2486,10 +2478,10 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
         <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>27</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
@@ -2509,10 +2501,10 @@
         <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
         <v>8</v>
@@ -2541,56 +2533,56 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
-      </c>
-      <c r="H56" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2601,68 +2593,68 @@
         <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
@@ -2676,25 +2668,25 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2702,25 +2694,19 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" t="s">
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2728,19 +2714,19 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
-      </c>
-      <c r="F63" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="G63" t="s">
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2748,65 +2734,68 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" t="s">
         <v>8</v>
       </c>
-      <c r="F66" t="s">
-        <v>16</v>
-      </c>
       <c r="G66" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2817,16 +2806,16 @@
         <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
@@ -2834,22 +2823,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
@@ -2863,45 +2852,48 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
         <v>27</v>
       </c>
       <c r="G70" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H70" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2912,22 +2904,22 @@
         <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2938,100 +2930,100 @@
         <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
         <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3042,22 +3034,19 @@
         <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" t="s">
         <v>9</v>
       </c>
-      <c r="F76" t="s">
-        <v>16</v>
-      </c>
       <c r="G76" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3068,16 +3057,16 @@
         <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" t="s">
         <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>27</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
@@ -3091,19 +3080,22 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
         <v>16</v>
       </c>
       <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
         <v>9</v>
       </c>
-      <c r="F78" t="s">
-        <v>27</v>
-      </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3114,22 +3106,22 @@
         <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
       </c>
       <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
         <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>16</v>
       </c>
       <c r="G79" t="s">
         <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3140,22 +3132,22 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
       </c>
       <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
         <v>9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>16</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3166,22 +3158,22 @@
         <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
       </c>
       <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
         <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>16</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
       </c>
       <c r="H81" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3192,48 +3184,45 @@
         <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
         <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
-      </c>
-      <c r="H83" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3244,19 +3233,22 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3267,22 +3259,22 @@
         <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3293,22 +3285,19 @@
         <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F86" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3319,16 +3308,16 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
         <v>27</v>
@@ -3336,25 +3325,28 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3365,22 +3357,22 @@
         <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3391,22 +3383,22 @@
         <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3417,22 +3409,22 @@
         <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3443,22 +3435,19 @@
         <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3469,19 +3458,22 @@
         <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="H93" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3492,22 +3484,22 @@
         <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3518,22 +3510,22 @@
         <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3544,22 +3536,22 @@
         <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3570,22 +3562,19 @@
         <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
         <v>27</v>
-      </c>
-      <c r="H97" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3596,19 +3585,22 @@
         <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3619,22 +3611,13 @@
         <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D99" t="s">
         <v>16</v>
       </c>
-      <c r="E99" t="s">
-        <v>12</v>
-      </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3645,13 +3628,22 @@
         <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="F100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3662,22 +3654,22 @@
         <v>74</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
         <v>27</v>
       </c>
       <c r="H101" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3688,22 +3680,22 @@
         <v>74</v>
       </c>
       <c r="C102" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G102" t="s">
         <v>27</v>
       </c>
       <c r="H102" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3714,22 +3706,22 @@
         <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D103" t="s">
         <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G103" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3740,22 +3732,22 @@
         <v>74</v>
       </c>
       <c r="C104" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D104" t="s">
         <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3766,22 +3758,22 @@
         <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D105" t="s">
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G105" t="s">
         <v>27</v>
       </c>
       <c r="H105" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3792,22 +3784,25 @@
         <v>74</v>
       </c>
       <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s">
+        <v>195</v>
+      </c>
+      <c r="H106" t="s">
+        <v>180</v>
+      </c>
+      <c r="J106" t="s">
         <v>196</v>
-      </c>
-      <c r="D106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" t="s">
-        <v>27</v>
-      </c>
-      <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
-      <c r="H106" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3824,19 +3819,16 @@
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G107" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>183</v>
-      </c>
-      <c r="J107" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3847,22 +3839,22 @@
         <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G108" t="s">
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3873,22 +3865,22 @@
         <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
         <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H109" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3899,22 +3891,22 @@
         <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3925,22 +3917,22 @@
         <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3951,22 +3943,22 @@
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3977,68 +3969,65 @@
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E114" t="s">
         <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C115" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G115" t="s">
         <v>27</v>
@@ -4052,16 +4041,16 @@
         <v>107</v>
       </c>
       <c r="C116" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" t="s">
         <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>27</v>
       </c>
       <c r="G116" t="s">
         <v>27</v>
@@ -4069,51 +4058,51 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
         <v>8</v>
       </c>
-      <c r="F117" t="s">
-        <v>27</v>
-      </c>
       <c r="G117" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="H117" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4124,16 +4113,16 @@
         <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
         <v>34</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
         <v>27</v>
@@ -4147,16 +4136,16 @@
         <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
         <v>34</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
         <v>27</v>
@@ -4170,79 +4159,79 @@
         <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
         <v>34</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="H121" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
         <v>50</v>
@@ -4251,13 +4240,16 @@
         <v>7</v>
       </c>
       <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
         <v>8</v>
       </c>
-      <c r="F124" t="s">
-        <v>27</v>
-      </c>
       <c r="G124" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="H124" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4268,22 +4260,22 @@
         <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G125" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4294,45 +4286,45 @@
         <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E126" t="s">
         <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G126" t="s">
         <v>27</v>
-      </c>
-      <c r="H126" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C127" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
         <v>27</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="H127" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4343,22 +4335,22 @@
         <v>60</v>
       </c>
       <c r="C128" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G128" t="s">
         <v>9</v>
       </c>
       <c r="H128" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4369,22 +4361,22 @@
         <v>60</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D129" t="s">
         <v>16</v>
       </c>
       <c r="E129" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" t="s">
         <v>9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>16</v>
       </c>
       <c r="G129" t="s">
         <v>9</v>
       </c>
       <c r="H129" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4395,22 +4387,22 @@
         <v>60</v>
       </c>
       <c r="C130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D130" t="s">
         <v>16</v>
       </c>
       <c r="E130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
         <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>16</v>
       </c>
       <c r="G130" t="s">
         <v>9</v>
       </c>
       <c r="H130" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4421,67 +4413,41 @@
         <v>60</v>
       </c>
       <c r="C131" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
       <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" t="s">
         <v>9</v>
       </c>
-      <c r="F131" t="s">
-        <v>16</v>
-      </c>
       <c r="G131" t="s">
-        <v>9</v>
-      </c>
-      <c r="H131" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G132" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" t="s">
-        <v>138</v>
-      </c>
-      <c r="C133" t="s">
-        <v>139</v>
-      </c>
-      <c r="D133" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>27</v>
-      </c>
-      <c r="G133" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4527,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4538,7 +4504,7 @@
         <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Data/proterant_ds.xlsx
+++ b/Data/proterant_ds.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="224">
   <si>
     <t>Liriodendron</t>
   </si>
@@ -478,9 +478,6 @@
     <t>"pollination by insects usually occurs within 2-4 weeks after bud burst" might be ambo</t>
   </si>
   <si>
-    <t>octandra</t>
-  </si>
-  <si>
     <t>Alnus</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     <t>Amelanchier</t>
   </si>
   <si>
-    <t>illinoiensis</t>
-  </si>
-  <si>
     <t>triacanthos</t>
   </si>
   <si>
@@ -689,6 +683,15 @@
   </si>
   <si>
     <t>silvic_phen_seq</t>
+  </si>
+  <si>
+    <t>pennsylvanica</t>
+  </si>
+  <si>
+    <t>illinoinensis</t>
+  </si>
+  <si>
+    <t>flava</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1129,34 +1132,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1182,7 +1185,7 @@
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1208,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
         <v>151</v>
@@ -1237,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1266,7 +1269,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1292,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1318,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1369,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1418,7 +1421,7 @@
         <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1444,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1455,7 +1458,7 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1470,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1519,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1527,10 +1530,10 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1545,7 +1548,7 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1553,10 +1556,10 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1571,7 +1574,7 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1579,7 +1582,7 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -1597,7 +1600,7 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1605,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
@@ -1669,10 +1672,10 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1683,7 +1686,7 @@
         <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1698,10 +1701,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1727,7 +1730,7 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1776,10 +1779,10 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1805,7 +1808,7 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1816,7 +1819,7 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -1831,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1857,7 +1860,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1883,7 +1886,7 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1894,7 +1897,7 @@
         <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -1909,7 +1912,7 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1920,7 +1923,7 @@
         <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1935,7 +1938,7 @@
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1946,7 +1949,7 @@
         <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
@@ -1961,7 +1964,7 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1987,7 +1990,7 @@
         <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1998,7 +2001,7 @@
         <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
@@ -2013,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2108,7 +2111,7 @@
         <v>54</v>
       </c>
       <c r="H38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2119,7 +2122,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -2134,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2145,7 +2148,7 @@
         <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -2168,7 +2171,7 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -2183,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2234,10 +2237,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
         <v>160</v>
-      </c>
-      <c r="B44" t="s">
-        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -2255,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2281,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2307,7 +2310,7 @@
         <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2318,7 +2321,7 @@
         <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
@@ -2333,7 +2336,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2359,7 +2362,7 @@
         <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2370,7 +2373,7 @@
         <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -2385,7 +2388,7 @@
         <v>39</v>
       </c>
       <c r="H49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2411,7 +2414,7 @@
         <v>9</v>
       </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2442,10 +2445,10 @@
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -2460,7 +2463,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I52" s="3"/>
     </row>
@@ -2489,13 +2492,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
         <v>164</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>165</v>
-      </c>
-      <c r="C54" t="s">
-        <v>166</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -2512,14 +2515,14 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
         <v>167</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>168</v>
       </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2582,7 +2585,7 @@
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2608,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2634,7 +2637,7 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2660,7 +2663,7 @@
         <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2668,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
         <v>170</v>
-      </c>
-      <c r="C61" t="s">
-        <v>171</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
@@ -2686,7 +2689,7 @@
         <v>54</v>
       </c>
       <c r="H61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2694,10 +2697,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -2706,7 +2709,7 @@
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2714,10 +2717,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -2726,7 +2729,7 @@
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2734,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -2746,7 +2749,7 @@
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2772,7 +2775,7 @@
         <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2867,7 +2870,7 @@
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2878,7 +2881,7 @@
         <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
@@ -2893,7 +2896,7 @@
         <v>39</v>
       </c>
       <c r="H70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2904,7 +2907,7 @@
         <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -2919,7 +2922,7 @@
         <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2945,7 +2948,7 @@
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2971,7 +2974,7 @@
         <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2997,7 +3000,7 @@
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3023,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="H75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3095,7 +3098,7 @@
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3121,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3147,7 +3150,7 @@
         <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3173,7 +3176,7 @@
         <v>9</v>
       </c>
       <c r="H81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3184,7 +3187,7 @@
         <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
@@ -3199,7 +3202,7 @@
         <v>27</v>
       </c>
       <c r="H82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3248,7 +3251,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3274,7 +3277,7 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3346,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3372,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3383,7 +3386,7 @@
         <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
@@ -3398,7 +3401,7 @@
         <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3424,7 +3427,7 @@
         <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3473,7 +3476,7 @@
         <v>39</v>
       </c>
       <c r="H93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3499,7 +3502,7 @@
         <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3525,7 +3528,7 @@
         <v>39</v>
       </c>
       <c r="H95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3551,7 +3554,7 @@
         <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3600,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3628,7 +3631,7 @@
         <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D100" t="s">
         <v>27</v>
@@ -3643,7 +3646,7 @@
         <v>27</v>
       </c>
       <c r="H100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3669,7 +3672,7 @@
         <v>27</v>
       </c>
       <c r="H101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3680,7 +3683,7 @@
         <v>74</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D102" t="s">
         <v>27</v>
@@ -3695,7 +3698,7 @@
         <v>27</v>
       </c>
       <c r="H102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3706,7 +3709,7 @@
         <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D103" t="s">
         <v>27</v>
@@ -3721,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3732,7 +3735,7 @@
         <v>74</v>
       </c>
       <c r="C104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D104" t="s">
         <v>27</v>
@@ -3747,7 +3750,7 @@
         <v>27</v>
       </c>
       <c r="H104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3758,7 +3761,7 @@
         <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D105" t="s">
         <v>27</v>
@@ -3773,7 +3776,7 @@
         <v>27</v>
       </c>
       <c r="H105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3784,25 +3787,25 @@
         <v>74</v>
       </c>
       <c r="C106" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s">
         <v>194</v>
       </c>
-      <c r="D106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
+        <v>179</v>
+      </c>
+      <c r="J106" t="s">
         <v>195</v>
-      </c>
-      <c r="H106" t="s">
-        <v>180</v>
-      </c>
-      <c r="J106" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3813,7 +3816,7 @@
         <v>74</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D107" t="s">
         <v>27</v>
@@ -3828,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3839,7 +3842,7 @@
         <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
@@ -3854,7 +3857,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3880,7 +3883,7 @@
         <v>39</v>
       </c>
       <c r="H109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3891,7 +3894,7 @@
         <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -3906,7 +3909,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3917,7 +3920,7 @@
         <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
@@ -3932,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3943,7 +3946,7 @@
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -3958,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3969,7 +3972,7 @@
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
@@ -3984,7 +3987,7 @@
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4079,7 +4082,7 @@
         <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4174,7 +4177,7 @@
         <v>39</v>
       </c>
       <c r="H121" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4185,7 +4188,7 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -4200,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4249,7 +4252,7 @@
         <v>8</v>
       </c>
       <c r="H124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4275,7 +4278,7 @@
         <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4309,7 +4312,7 @@
         <v>60</v>
       </c>
       <c r="C127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D127" t="s">
         <v>27</v>
@@ -4324,7 +4327,7 @@
         <v>9</v>
       </c>
       <c r="H127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4350,7 +4353,7 @@
         <v>9</v>
       </c>
       <c r="H128" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4376,7 +4379,7 @@
         <v>9</v>
       </c>
       <c r="H129" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4402,7 +4405,7 @@
         <v>9</v>
       </c>
       <c r="H130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4493,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4504,7 +4507,7 @@
         <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4">
